--- a/data/pca/factorExposure/factorExposure_2010-04-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-04-21.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01531966222053252</v>
+        <v>-0.01715027028319176</v>
       </c>
       <c r="C2">
-        <v>0.002593017408328853</v>
+        <v>-0.001105981413835319</v>
       </c>
       <c r="D2">
-        <v>0.01220077665787278</v>
+        <v>-0.0080012809812262</v>
       </c>
       <c r="E2">
-        <v>0.01006716738457957</v>
+        <v>-0.0003465494173382698</v>
       </c>
       <c r="F2">
-        <v>0.02481952736764576</v>
+        <v>-0.01065425486162853</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1161120151363541</v>
+        <v>-0.09327109477096872</v>
       </c>
       <c r="C4">
-        <v>-0.06482557294848666</v>
+        <v>-0.01681150092388425</v>
       </c>
       <c r="D4">
-        <v>0.05912819189052577</v>
+        <v>-0.08346441709685125</v>
       </c>
       <c r="E4">
-        <v>-0.008281244061550846</v>
+        <v>0.03044080750084727</v>
       </c>
       <c r="F4">
-        <v>0.01917814323263405</v>
+        <v>0.03192456684062814</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1235633279923141</v>
+        <v>-0.1533452445655032</v>
       </c>
       <c r="C6">
-        <v>-0.02065382504967957</v>
+        <v>-0.02482450200871555</v>
       </c>
       <c r="D6">
-        <v>0.03551026488495389</v>
+        <v>0.02144306786540143</v>
       </c>
       <c r="E6">
-        <v>0.02681185562111912</v>
+        <v>0.01012828305607752</v>
       </c>
       <c r="F6">
-        <v>-0.0537282528463987</v>
+        <v>0.04188777659412875</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06681584489942539</v>
+        <v>-0.05962469864522815</v>
       </c>
       <c r="C7">
-        <v>-0.0440364926362137</v>
+        <v>0.0004926999382021245</v>
       </c>
       <c r="D7">
-        <v>0.07472632449243594</v>
+        <v>-0.05177148011251302</v>
       </c>
       <c r="E7">
-        <v>0.02281891047519518</v>
+        <v>0.01506853191035695</v>
       </c>
       <c r="F7">
-        <v>0.04877921637862092</v>
+        <v>0.05259544149082386</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05423840487384517</v>
+        <v>-0.05852998859885156</v>
       </c>
       <c r="C8">
-        <v>-0.03040147813540395</v>
+        <v>0.01273708222247625</v>
       </c>
       <c r="D8">
-        <v>0.04680467644662194</v>
+        <v>-0.03032158630412716</v>
       </c>
       <c r="E8">
-        <v>-0.01745424411180328</v>
+        <v>0.01509539178046722</v>
       </c>
       <c r="F8">
-        <v>-0.01605614574041196</v>
+        <v>-0.02987658005904842</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08115210515600457</v>
+        <v>-0.07122976991949428</v>
       </c>
       <c r="C9">
-        <v>-0.04153473572171021</v>
+        <v>-0.01292557918597713</v>
       </c>
       <c r="D9">
-        <v>0.04541322635477394</v>
+        <v>-0.0829606294406451</v>
       </c>
       <c r="E9">
-        <v>-0.01734069632884547</v>
+        <v>0.02498532379342838</v>
       </c>
       <c r="F9">
-        <v>0.01084481570495602</v>
+        <v>0.05364540450782709</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1180292447895998</v>
+        <v>-0.09436266708508635</v>
       </c>
       <c r="C10">
-        <v>0.1389094762893726</v>
+        <v>-0.01693448091632861</v>
       </c>
       <c r="D10">
-        <v>-0.07966090698619022</v>
+        <v>0.1713446405681887</v>
       </c>
       <c r="E10">
-        <v>0.02784721796524417</v>
+        <v>-0.0387730321240455</v>
       </c>
       <c r="F10">
-        <v>0.02305989583259263</v>
+        <v>-0.05316813635354817</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.07581024522534011</v>
+        <v>-0.08749189083223168</v>
       </c>
       <c r="C11">
-        <v>-0.03501343503971242</v>
+        <v>-0.01223060645231198</v>
       </c>
       <c r="D11">
-        <v>0.07286803797142864</v>
+        <v>-0.1145367092129531</v>
       </c>
       <c r="E11">
-        <v>-0.02637116915106309</v>
+        <v>0.04860681718306974</v>
       </c>
       <c r="F11">
-        <v>0.008303749802052521</v>
+        <v>0.01938166373788706</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.07121749432067313</v>
+        <v>-0.09240491237605492</v>
       </c>
       <c r="C12">
-        <v>-0.03295786811184415</v>
+        <v>-0.01009796312481862</v>
       </c>
       <c r="D12">
-        <v>0.07624018553904095</v>
+        <v>-0.1219399169772011</v>
       </c>
       <c r="E12">
-        <v>-0.05719602172645361</v>
+        <v>0.04784771473166693</v>
       </c>
       <c r="F12">
-        <v>0.03101351693576658</v>
+        <v>0.0208937515655851</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.02969188316733327</v>
+        <v>-0.04257247048446387</v>
       </c>
       <c r="C13">
-        <v>-0.0206344569727511</v>
+        <v>-0.003875578915602565</v>
       </c>
       <c r="D13">
-        <v>0.01773252094396795</v>
+        <v>-0.04804774695288173</v>
       </c>
       <c r="E13">
-        <v>0.01633888107931199</v>
+        <v>-0.01178295206347057</v>
       </c>
       <c r="F13">
-        <v>0.01232233444145029</v>
+        <v>0.01211230178281509</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.03881286471906424</v>
+        <v>-0.02180191855470144</v>
       </c>
       <c r="C14">
-        <v>-0.02216677790668413</v>
+        <v>-0.01455115522564155</v>
       </c>
       <c r="D14">
-        <v>0.02323664381084999</v>
+        <v>-0.03268827944761428</v>
       </c>
       <c r="E14">
-        <v>-0.02026143572744031</v>
+        <v>0.0187161004811719</v>
       </c>
       <c r="F14">
-        <v>0.002617531151844795</v>
+        <v>0.01745466326848428</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.01702975625863365</v>
+        <v>-0.03176652174354352</v>
       </c>
       <c r="C15">
-        <v>-0.01107867263564662</v>
+        <v>-0.005516190379753522</v>
       </c>
       <c r="D15">
-        <v>0.009297832727168916</v>
+        <v>-0.04539615957586154</v>
       </c>
       <c r="E15">
-        <v>0.04884466474212949</v>
+        <v>0.008807379789506749</v>
       </c>
       <c r="F15">
-        <v>0.001327858339044766</v>
+        <v>0.03074790312732601</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.0806005063937015</v>
+        <v>-0.07386736381019246</v>
       </c>
       <c r="C16">
-        <v>-0.02740241424731192</v>
+        <v>-0.003783748813638777</v>
       </c>
       <c r="D16">
-        <v>0.08043711350033703</v>
+        <v>-0.116799367466231</v>
       </c>
       <c r="E16">
-        <v>-0.03954163593922504</v>
+        <v>0.06335690552177441</v>
       </c>
       <c r="F16">
-        <v>0.002210566294758708</v>
+        <v>0.02971761390584977</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02234623870816633</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003641417556875917</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.02030426650721972</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.0102216064234683</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.0209549035367756</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.0504623821822659</v>
+        <v>-0.06105616940129818</v>
       </c>
       <c r="C20">
-        <v>-0.04987483134467446</v>
+        <v>-0.001674619184524871</v>
       </c>
       <c r="D20">
-        <v>0.01001944499668886</v>
+        <v>-0.07448982532538485</v>
       </c>
       <c r="E20">
-        <v>0.01400724977518989</v>
+        <v>0.05590118380596881</v>
       </c>
       <c r="F20">
-        <v>0.02570080766779295</v>
+        <v>0.02726476039604125</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.02904399762210005</v>
+        <v>-0.03889617511190185</v>
       </c>
       <c r="C21">
-        <v>-0.02122661073622537</v>
+        <v>-0.00743684653205777</v>
       </c>
       <c r="D21">
-        <v>-0.008016617351663246</v>
+        <v>-0.03628407577598271</v>
       </c>
       <c r="E21">
-        <v>-0.02302373987506726</v>
+        <v>-0.007726750566450005</v>
       </c>
       <c r="F21">
-        <v>-0.005775804534647398</v>
+        <v>-0.02039254712463339</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.03391970819795236</v>
+        <v>-0.04189718561659299</v>
       </c>
       <c r="C22">
-        <v>0.002987701103431016</v>
+        <v>-9.333333279755775e-05</v>
       </c>
       <c r="D22">
-        <v>0.009920097316947167</v>
+        <v>-0.002763876865824352</v>
       </c>
       <c r="E22">
-        <v>0.6313429440340813</v>
+        <v>0.02930491856360208</v>
       </c>
       <c r="F22">
-        <v>0.05269892754662479</v>
+        <v>-0.0082876586849868</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.03420049235246586</v>
+        <v>-0.04195707025322844</v>
       </c>
       <c r="C23">
-        <v>0.002809760529794965</v>
+        <v>-0.000117769282545491</v>
       </c>
       <c r="D23">
-        <v>0.01196323325756416</v>
+        <v>-0.002886795987180044</v>
       </c>
       <c r="E23">
-        <v>0.6343281629238808</v>
+        <v>0.0296538429591504</v>
       </c>
       <c r="F23">
-        <v>0.05186313225492059</v>
+        <v>-0.007826676229339717</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08133103078409055</v>
+        <v>-0.08023968096693648</v>
       </c>
       <c r="C24">
-        <v>-0.04121768323787521</v>
+        <v>-0.004123214724623813</v>
       </c>
       <c r="D24">
-        <v>0.05915818996562711</v>
+        <v>-0.1175807095655059</v>
       </c>
       <c r="E24">
-        <v>-0.03813898506203613</v>
+        <v>0.05097501941586976</v>
       </c>
       <c r="F24">
-        <v>0.008404004185615436</v>
+        <v>0.02229366992831877</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08555715602544253</v>
+        <v>-0.08493371411036713</v>
       </c>
       <c r="C25">
-        <v>-0.03380316102730099</v>
+        <v>-0.006117019913072138</v>
       </c>
       <c r="D25">
-        <v>0.07223928116761315</v>
+        <v>-0.1061732614968137</v>
       </c>
       <c r="E25">
-        <v>-0.06056535514040806</v>
+        <v>0.03421866859166228</v>
       </c>
       <c r="F25">
-        <v>0.02460796155625653</v>
+        <v>0.02925441921114498</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.04058665953344223</v>
+        <v>-0.05528153467195211</v>
       </c>
       <c r="C26">
-        <v>-0.001144999149329247</v>
+        <v>-0.01513208237539216</v>
       </c>
       <c r="D26">
-        <v>-0.00811973206197298</v>
+        <v>-0.03619122850322268</v>
       </c>
       <c r="E26">
-        <v>0.01347628247836152</v>
+        <v>0.02835282840330587</v>
       </c>
       <c r="F26">
-        <v>-0.02851486886144271</v>
+        <v>-0.009911466729974954</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.138594321355495</v>
+        <v>-0.1425173667438657</v>
       </c>
       <c r="C28">
-        <v>0.2717742786360166</v>
+        <v>-0.01496303372657058</v>
       </c>
       <c r="D28">
-        <v>-0.1156123689631126</v>
+        <v>0.267029205496378</v>
       </c>
       <c r="E28">
-        <v>-0.01019617071494497</v>
+        <v>-0.06886872473012956</v>
       </c>
       <c r="F28">
-        <v>-0.0536347582291128</v>
+        <v>0.02884055439361822</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.03357492782371051</v>
+        <v>-0.0268991765995282</v>
       </c>
       <c r="C29">
-        <v>-0.008984118607929779</v>
+        <v>-0.008769380496793568</v>
       </c>
       <c r="D29">
-        <v>0.02983312656829756</v>
+        <v>-0.03132123531952324</v>
       </c>
       <c r="E29">
-        <v>-0.0268749534255757</v>
+        <v>0.01173395476974301</v>
       </c>
       <c r="F29">
-        <v>0.03934130447999618</v>
+        <v>-0.01308341921355445</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.09662858241194992</v>
+        <v>-0.06344898532059892</v>
       </c>
       <c r="C30">
-        <v>-0.05199599334446934</v>
+        <v>-0.005608449829971185</v>
       </c>
       <c r="D30">
-        <v>0.09331355924303558</v>
+        <v>-0.08308826306024862</v>
       </c>
       <c r="E30">
-        <v>-0.05997908543111748</v>
+        <v>0.02475160418110328</v>
       </c>
       <c r="F30">
-        <v>-0.03972872280604712</v>
+        <v>0.1051739281837111</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.03029252235389271</v>
+        <v>-0.04846810578583866</v>
       </c>
       <c r="C31">
-        <v>-0.03597008738180887</v>
+        <v>-0.01506900350379945</v>
       </c>
       <c r="D31">
-        <v>0.02285558432406184</v>
+        <v>-0.02810813168321275</v>
       </c>
       <c r="E31">
-        <v>-0.000602513423037058</v>
+        <v>0.02743015879885483</v>
       </c>
       <c r="F31">
-        <v>0.0198580275108291</v>
+        <v>-0.003757046622124015</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.05853184509500038</v>
+        <v>-0.04800133235679006</v>
       </c>
       <c r="C32">
-        <v>-0.02517184682065613</v>
+        <v>-0.0002213837106159483</v>
       </c>
       <c r="D32">
-        <v>-0.003082697704896575</v>
+        <v>-0.03039725927898755</v>
       </c>
       <c r="E32">
-        <v>-0.07911710339038387</v>
+        <v>0.02991189319970824</v>
       </c>
       <c r="F32">
-        <v>-0.06854672242632606</v>
+        <v>0.001465645208932248</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.08665175847447346</v>
+        <v>-0.09003994559233701</v>
       </c>
       <c r="C33">
-        <v>-0.01918812136476288</v>
+        <v>-0.009370177071876262</v>
       </c>
       <c r="D33">
-        <v>0.09095871434229925</v>
+        <v>-0.09379358774367839</v>
       </c>
       <c r="E33">
-        <v>-0.0280303851700628</v>
+        <v>0.04675889174029235</v>
       </c>
       <c r="F33">
-        <v>0.01773423048912351</v>
+        <v>0.0408458364131356</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06921920925092198</v>
+        <v>-0.0679937297284417</v>
       </c>
       <c r="C34">
-        <v>-0.02200008171252723</v>
+        <v>-0.01227766841771332</v>
       </c>
       <c r="D34">
-        <v>0.05717601287755495</v>
+        <v>-0.09845913120554375</v>
       </c>
       <c r="E34">
-        <v>-0.03557446044145594</v>
+        <v>0.03558884094364299</v>
       </c>
       <c r="F34">
-        <v>0.01351631804108786</v>
+        <v>0.04152429743409108</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.01296004540946257</v>
+        <v>-0.0244537426027364</v>
       </c>
       <c r="C35">
-        <v>-0.005218687881091743</v>
+        <v>-0.002529906356954603</v>
       </c>
       <c r="D35">
-        <v>0.01998191499507216</v>
+        <v>-0.01155221257268785</v>
       </c>
       <c r="E35">
-        <v>-0.002480893572769914</v>
+        <v>0.01149384238627069</v>
       </c>
       <c r="F35">
-        <v>0.02072493470059441</v>
+        <v>0.009315245075699913</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02397923329117593</v>
+        <v>-0.0241303487324706</v>
       </c>
       <c r="C36">
-        <v>-0.01205618367099305</v>
+        <v>-0.007334071803903168</v>
       </c>
       <c r="D36">
-        <v>0.01245337236864736</v>
+        <v>-0.03836535887665699</v>
       </c>
       <c r="E36">
-        <v>0.003702685750309599</v>
+        <v>0.01747270862370358</v>
       </c>
       <c r="F36">
-        <v>-0.004288103128619352</v>
+        <v>0.0105048407100241</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.00895653385828068</v>
+        <v>-0.001656491568676543</v>
       </c>
       <c r="C38">
-        <v>-0.008535458773439638</v>
+        <v>-0.0002729193583340311</v>
       </c>
       <c r="D38">
-        <v>0.01229532713988641</v>
+        <v>-0.001224218276549632</v>
       </c>
       <c r="E38">
-        <v>0.02221118357162548</v>
+        <v>0.00151591705351805</v>
       </c>
       <c r="F38">
-        <v>0.02980152172390903</v>
+        <v>-0.000529947061795748</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1140651731534493</v>
+        <v>-0.1087824475448547</v>
       </c>
       <c r="C39">
-        <v>-0.05157039115572804</v>
+        <v>-0.01766840939549939</v>
       </c>
       <c r="D39">
-        <v>0.1268308795319052</v>
+        <v>-0.15296301034376</v>
       </c>
       <c r="E39">
-        <v>-0.1404000271754413</v>
+        <v>0.06110743466672676</v>
       </c>
       <c r="F39">
-        <v>0.03855246692810244</v>
+        <v>0.02799378162274853</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.009150111186818525</v>
+        <v>-0.03702852607168344</v>
       </c>
       <c r="C40">
-        <v>-0.05113933037684856</v>
+        <v>-0.007307543493371548</v>
       </c>
       <c r="D40">
-        <v>0.01250981259315063</v>
+        <v>-0.03171052218874317</v>
       </c>
       <c r="E40">
-        <v>0.0647147433440472</v>
+        <v>0.003221933798969465</v>
       </c>
       <c r="F40">
-        <v>0.04304227990152554</v>
+        <v>-0.01379049806703857</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02897857906434515</v>
+        <v>-0.02610686575286276</v>
       </c>
       <c r="C41">
-        <v>-0.01071302699948922</v>
+        <v>-0.006735228653405337</v>
       </c>
       <c r="D41">
-        <v>0.0110128897207406</v>
+        <v>-0.01111050046033265</v>
       </c>
       <c r="E41">
-        <v>-0.007851649715580094</v>
+        <v>0.0123472507211552</v>
       </c>
       <c r="F41">
-        <v>0.01546726348052567</v>
+        <v>-0.009762767740772475</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.03856658628477714</v>
+        <v>-0.04088958219456622</v>
       </c>
       <c r="C43">
-        <v>-0.0003057731481660124</v>
+        <v>-0.006812054228346789</v>
       </c>
       <c r="D43">
-        <v>0.02986802627625754</v>
+        <v>-0.02062112326773802</v>
       </c>
       <c r="E43">
-        <v>-0.00156736865835504</v>
+        <v>0.02483935376664065</v>
       </c>
       <c r="F43">
-        <v>0.003091909562518857</v>
+        <v>-0.01174440837315744</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.115220999968552</v>
+        <v>-0.07224923474852071</v>
       </c>
       <c r="C44">
-        <v>-0.08582203216468377</v>
+        <v>-0.02195040230913317</v>
       </c>
       <c r="D44">
-        <v>0.1431791982811131</v>
+        <v>-0.1011664493244677</v>
       </c>
       <c r="E44">
-        <v>0.1036433332819921</v>
+        <v>0.06825203208785391</v>
       </c>
       <c r="F44">
-        <v>0.1062704579956123</v>
+        <v>0.1686287407804888</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02331465259694732</v>
+        <v>-0.02187492227978415</v>
       </c>
       <c r="C46">
-        <v>0.01622456976218891</v>
+        <v>-0.004074775513783249</v>
       </c>
       <c r="D46">
-        <v>0.02652576609049154</v>
+        <v>-0.01159188815531733</v>
       </c>
       <c r="E46">
-        <v>0.02785218369913053</v>
+        <v>0.02365661355413515</v>
       </c>
       <c r="F46">
-        <v>0.02820150192015783</v>
+        <v>-0.0001857361506924331</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.03890724773597584</v>
+        <v>-0.05194065032608772</v>
       </c>
       <c r="C47">
-        <v>-0.02051239150637026</v>
+        <v>-0.003355981567890316</v>
       </c>
       <c r="D47">
-        <v>0.02013119813048322</v>
+        <v>-0.01247612627911256</v>
       </c>
       <c r="E47">
-        <v>-0.01123887298727153</v>
+        <v>0.0225432209153723</v>
       </c>
       <c r="F47">
-        <v>0.009852811826629119</v>
+        <v>-0.04462360104762177</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04190431597615795</v>
+        <v>-0.04787736867121009</v>
       </c>
       <c r="C48">
-        <v>-0.01115005744196003</v>
+        <v>-0.003148068864131965</v>
       </c>
       <c r="D48">
-        <v>0.01064374860012269</v>
+        <v>-0.04782137371971122</v>
       </c>
       <c r="E48">
-        <v>-0.006018375768160893</v>
+        <v>-0.00433882199569615</v>
       </c>
       <c r="F48">
-        <v>0.0163836078755747</v>
+        <v>0.01058194835669551</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2264273114717013</v>
+        <v>-0.2033097535161494</v>
       </c>
       <c r="C49">
-        <v>-0.005822618089646197</v>
+        <v>-0.01760648734815774</v>
       </c>
       <c r="D49">
-        <v>-0.06325986575178541</v>
+        <v>0.01172522576046565</v>
       </c>
       <c r="E49">
-        <v>-0.0257292956475508</v>
+        <v>0.03321176504449676</v>
       </c>
       <c r="F49">
-        <v>0.0448391037543274</v>
+        <v>0.03548070595237574</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03866575208114603</v>
+        <v>-0.04822881040585435</v>
       </c>
       <c r="C50">
-        <v>-0.02633495736244131</v>
+        <v>-0.01110503760893351</v>
       </c>
       <c r="D50">
-        <v>0.01088617801883632</v>
+        <v>-0.02682684314519425</v>
       </c>
       <c r="E50">
-        <v>-0.01372741348800252</v>
+        <v>0.02934447215637753</v>
       </c>
       <c r="F50">
-        <v>0.009909984656736528</v>
+        <v>0.009198531599637955</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.01431293325299653</v>
+        <v>-0.002456577112597323</v>
       </c>
       <c r="C51">
-        <v>0.0276559561435083</v>
+        <v>-0.0006382694731490977</v>
       </c>
       <c r="D51">
-        <v>0.003822704555046296</v>
+        <v>0.002915186534329229</v>
       </c>
       <c r="E51">
-        <v>0.009313803157610941</v>
+        <v>-0.0004560026048262836</v>
       </c>
       <c r="F51">
-        <v>0.01230116000515556</v>
+        <v>0.005585652702484854</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.0989395175392153</v>
+        <v>-0.1450149564755428</v>
       </c>
       <c r="C52">
-        <v>-0.08004388668333025</v>
+        <v>-0.01356904837953896</v>
       </c>
       <c r="D52">
-        <v>0.047325360791911</v>
+        <v>-0.05190910226707042</v>
       </c>
       <c r="E52">
-        <v>-0.0226073879173299</v>
+        <v>0.02384008100675581</v>
       </c>
       <c r="F52">
-        <v>0.03287003731885451</v>
+        <v>0.0359207386370276</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1608740328405929</v>
+        <v>-0.1742147499006794</v>
       </c>
       <c r="C53">
-        <v>-0.04396039376364843</v>
+        <v>-0.0164774188063319</v>
       </c>
       <c r="D53">
-        <v>0.02349838516255272</v>
+        <v>-0.01217658846896402</v>
       </c>
       <c r="E53">
-        <v>0.01389944938184617</v>
+        <v>0.03603017774579233</v>
       </c>
       <c r="F53">
-        <v>0.04635220697205564</v>
+        <v>0.06704195670084263</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.05211731440944499</v>
+        <v>-0.02135117012664763</v>
       </c>
       <c r="C54">
-        <v>-0.0487262760152988</v>
+        <v>-0.01249080973060044</v>
       </c>
       <c r="D54">
-        <v>0.04038189647281556</v>
+        <v>-0.03377318354649441</v>
       </c>
       <c r="E54">
-        <v>0.01958732208808562</v>
+        <v>0.01530516633168115</v>
       </c>
       <c r="F54">
-        <v>0.01403392916931803</v>
+        <v>-0.006483233622165757</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08405733837787129</v>
+        <v>-0.1140969020737027</v>
       </c>
       <c r="C55">
-        <v>-0.004105834624610599</v>
+        <v>-0.01502962568393066</v>
       </c>
       <c r="D55">
-        <v>0.07093010771470895</v>
+        <v>-0.01205584055370661</v>
       </c>
       <c r="E55">
-        <v>-0.02361952226797374</v>
+        <v>0.03030843484371757</v>
       </c>
       <c r="F55">
-        <v>0.02981284427587686</v>
+        <v>0.04684250843329672</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1544869362360365</v>
+        <v>-0.1779451450281348</v>
       </c>
       <c r="C56">
-        <v>-0.04690534097680664</v>
+        <v>-0.01380793841117696</v>
       </c>
       <c r="D56">
-        <v>0.05356953272978231</v>
+        <v>-0.007618168926904359</v>
       </c>
       <c r="E56">
-        <v>-0.01274861007007684</v>
+        <v>0.04039957767684622</v>
       </c>
       <c r="F56">
-        <v>0.08608550277860474</v>
+        <v>0.04286446674031416</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.05058760878524777</v>
+        <v>-0.04669619917790006</v>
       </c>
       <c r="C58">
-        <v>-0.03654458444571437</v>
+        <v>-0.00216151288170764</v>
       </c>
       <c r="D58">
-        <v>0.01423076268748368</v>
+        <v>-0.06496613999961587</v>
       </c>
       <c r="E58">
-        <v>0.05290962327359666</v>
+        <v>0.0228792736227962</v>
       </c>
       <c r="F58">
-        <v>0.009223035151772776</v>
+        <v>-0.04478705950871342</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1925905553524956</v>
+        <v>-0.1714784036707029</v>
       </c>
       <c r="C59">
-        <v>0.2351408822400103</v>
+        <v>-0.01626126924599003</v>
       </c>
       <c r="D59">
-        <v>-0.07818182155193582</v>
+        <v>0.224660937892262</v>
       </c>
       <c r="E59">
-        <v>-0.02739945942669966</v>
+        <v>-0.04935202001532785</v>
       </c>
       <c r="F59">
-        <v>-0.007788735644802138</v>
+        <v>-0.03445477914339211</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2428422057450827</v>
+        <v>-0.2368077129625522</v>
       </c>
       <c r="C60">
-        <v>-0.1165017007541307</v>
+        <v>0.003859404986341788</v>
       </c>
       <c r="D60">
-        <v>-0.01721558079921062</v>
+        <v>-0.04680379476163061</v>
       </c>
       <c r="E60">
-        <v>-0.03437635184159394</v>
+        <v>0.007136060184073033</v>
       </c>
       <c r="F60">
-        <v>0.09671180660532057</v>
+        <v>-0.02875389070083565</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.1074638423662665</v>
+        <v>-0.08340098863824751</v>
       </c>
       <c r="C61">
-        <v>-0.02916785119365259</v>
+        <v>-0.01384495408729935</v>
       </c>
       <c r="D61">
-        <v>0.08750434231419821</v>
+        <v>-0.1128496480901364</v>
       </c>
       <c r="E61">
-        <v>-0.0872160088437164</v>
+        <v>0.04198374366239884</v>
       </c>
       <c r="F61">
-        <v>0.05830672627133363</v>
+        <v>0.01414904474748042</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1508785923702882</v>
+        <v>-0.1705018137752621</v>
       </c>
       <c r="C62">
-        <v>-0.0338186201414493</v>
+        <v>-0.01782299699320277</v>
       </c>
       <c r="D62">
-        <v>0.03716952664246884</v>
+        <v>-0.01091486951991844</v>
       </c>
       <c r="E62">
-        <v>0.007228890426707925</v>
+        <v>0.03795091157145766</v>
       </c>
       <c r="F62">
-        <v>0.0517924340328617</v>
+        <v>0.02390391635055173</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04235501392007152</v>
+        <v>-0.0428462816314026</v>
       </c>
       <c r="C63">
-        <v>-0.004878937788293699</v>
+        <v>-0.00324895890811628</v>
       </c>
       <c r="D63">
-        <v>0.0223790158776377</v>
+        <v>-0.05134249118001254</v>
       </c>
       <c r="E63">
-        <v>-0.01234571741690375</v>
+        <v>0.02294869875705559</v>
       </c>
       <c r="F63">
-        <v>-0.03233646096509284</v>
+        <v>0.006829920789271761</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09536771388777547</v>
+        <v>-0.1119756676381083</v>
       </c>
       <c r="C64">
-        <v>-0.03477183729053126</v>
+        <v>-0.01186283004871439</v>
       </c>
       <c r="D64">
-        <v>0.02697458440110376</v>
+        <v>-0.04280373184486266</v>
       </c>
       <c r="E64">
-        <v>-0.00087581538706773</v>
+        <v>0.02202131806826404</v>
       </c>
       <c r="F64">
-        <v>0.0761829808187388</v>
+        <v>0.02341695372493545</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1144444457891858</v>
+        <v>-0.1444427367332745</v>
       </c>
       <c r="C65">
-        <v>-0.01636973341536482</v>
+        <v>-0.0313030323656083</v>
       </c>
       <c r="D65">
-        <v>0.0186331516903139</v>
+        <v>0.04242431245500588</v>
       </c>
       <c r="E65">
-        <v>-0.01004060000769105</v>
+        <v>0.0006961055557169127</v>
       </c>
       <c r="F65">
-        <v>-0.06496015704691224</v>
+        <v>0.04273926957949627</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1300479276794661</v>
+        <v>-0.1299416932446908</v>
       </c>
       <c r="C66">
-        <v>-0.06936962283762352</v>
+        <v>-0.01538399526324849</v>
       </c>
       <c r="D66">
-        <v>0.1318659133714447</v>
+        <v>-0.1410033390623881</v>
       </c>
       <c r="E66">
-        <v>-0.1187230847436576</v>
+        <v>0.06791186553768314</v>
       </c>
       <c r="F66">
-        <v>0.0610260028313411</v>
+        <v>0.03274254322069522</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.05191395635643966</v>
+        <v>-0.06239041777313624</v>
       </c>
       <c r="C67">
-        <v>0.02393935973078997</v>
+        <v>-0.003460475539366827</v>
       </c>
       <c r="D67">
-        <v>0.07406854773308386</v>
+        <v>-0.05279809502073598</v>
       </c>
       <c r="E67">
-        <v>0.03080643500440899</v>
+        <v>0.01889624056748691</v>
       </c>
       <c r="F67">
-        <v>0.0264377167483345</v>
+        <v>-0.03834728099380279</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.119483365076188</v>
+        <v>-0.1160866793718356</v>
       </c>
       <c r="C68">
-        <v>0.2286814276838103</v>
+        <v>-0.0259014272646942</v>
       </c>
       <c r="D68">
-        <v>-0.1025216616380786</v>
+        <v>0.2640974626527402</v>
       </c>
       <c r="E68">
-        <v>-0.02380481707242841</v>
+        <v>-0.08688515153737894</v>
       </c>
       <c r="F68">
-        <v>-0.05998651256364822</v>
+        <v>0.03287660060514042</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03245186177315563</v>
+        <v>-0.03938322046415881</v>
       </c>
       <c r="C69">
-        <v>0.03231174649055432</v>
+        <v>-0.00110450106644996</v>
       </c>
       <c r="D69">
-        <v>0.02228140428093019</v>
+        <v>-0.009075586090499252</v>
       </c>
       <c r="E69">
-        <v>0.005081455504580622</v>
+        <v>0.02437475925746771</v>
       </c>
       <c r="F69">
-        <v>0.01077929353455676</v>
+        <v>-0.01217695966018899</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.03178931526345265</v>
+        <v>-0.0632117940083035</v>
       </c>
       <c r="C70">
-        <v>0.01495782657589339</v>
+        <v>0.02775919889661784</v>
       </c>
       <c r="D70">
-        <v>0.03359269310727049</v>
+        <v>-0.02710561296719841</v>
       </c>
       <c r="E70">
-        <v>-0.03436960361001666</v>
+        <v>-0.04698586265721752</v>
       </c>
       <c r="F70">
-        <v>0.03799097596249419</v>
+        <v>-0.2750532804745366</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1371494360136189</v>
+        <v>-0.1352147811443735</v>
       </c>
       <c r="C71">
-        <v>0.2510738107493464</v>
+        <v>-0.03005585870151356</v>
       </c>
       <c r="D71">
-        <v>-0.1087739394780285</v>
+        <v>0.2794441198096664</v>
       </c>
       <c r="E71">
-        <v>-0.01091747044852736</v>
+        <v>-0.0952841144875501</v>
       </c>
       <c r="F71">
-        <v>-0.02138070546032716</v>
+        <v>0.03889918320046459</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1419229533273688</v>
+        <v>-0.1406291729132045</v>
       </c>
       <c r="C72">
-        <v>-0.0228098411606286</v>
+        <v>-0.02466745424651568</v>
       </c>
       <c r="D72">
-        <v>0.01951955726340011</v>
+        <v>-0.004771201566570749</v>
       </c>
       <c r="E72">
-        <v>0.009336288386943788</v>
+        <v>0.04531184349185989</v>
       </c>
       <c r="F72">
-        <v>0.003877140713262477</v>
+        <v>0.02372604797355204</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2138782716158308</v>
+        <v>-0.2038957691283571</v>
       </c>
       <c r="C73">
-        <v>-0.007165967262871274</v>
+        <v>-0.01153981761093524</v>
       </c>
       <c r="D73">
-        <v>0.03786468201396897</v>
+        <v>-0.01596535357708525</v>
       </c>
       <c r="E73">
-        <v>-0.05473365111210186</v>
+        <v>0.06214871304913096</v>
       </c>
       <c r="F73">
-        <v>0.1739834490421944</v>
+        <v>0.03790411408777156</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1199776778420257</v>
+        <v>-0.09451832103390857</v>
       </c>
       <c r="C74">
-        <v>-0.04819239440156944</v>
+        <v>-0.0121722880022045</v>
       </c>
       <c r="D74">
-        <v>0.07570718173149432</v>
+        <v>-0.02138593226076728</v>
       </c>
       <c r="E74">
-        <v>0.0005587209690449852</v>
+        <v>0.04820276078036724</v>
       </c>
       <c r="F74">
-        <v>0.04081270064812462</v>
+        <v>0.04679630270505602</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1117214560471436</v>
+        <v>-0.1299005338249564</v>
       </c>
       <c r="C75">
-        <v>-0.05546809129219277</v>
+        <v>-0.02638438429491267</v>
       </c>
       <c r="D75">
-        <v>0.03274370805793797</v>
+        <v>-0.03414688165654688</v>
       </c>
       <c r="E75">
-        <v>-3.307147582920896e-05</v>
+        <v>0.06108570013818396</v>
       </c>
       <c r="F75">
-        <v>0.02138570799275832</v>
+        <v>0.01503255833053534</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.02403558120399079</v>
+        <v>-0.003977486027583237</v>
       </c>
       <c r="C76">
-        <v>0.01929175826570665</v>
+        <v>-0.0009352878569613477</v>
       </c>
       <c r="D76">
-        <v>0.006254618188835806</v>
+        <v>0.002549971701311631</v>
       </c>
       <c r="E76">
-        <v>-0.008640044139061229</v>
+        <v>0.0008721717782807499</v>
       </c>
       <c r="F76">
-        <v>0.0241507799485223</v>
+        <v>0.004271431822970592</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.06476822868182874</v>
+        <v>-0.07902561027690026</v>
       </c>
       <c r="C77">
-        <v>-0.04908681602246599</v>
+        <v>-0.01016682865461156</v>
       </c>
       <c r="D77">
-        <v>0.01130322839239396</v>
+        <v>-0.1127654048997377</v>
       </c>
       <c r="E77">
-        <v>0.003361629128927165</v>
+        <v>0.03839048137862836</v>
       </c>
       <c r="F77">
-        <v>0.06800937004766806</v>
+        <v>0.0354912184230472</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.10919647070829</v>
+        <v>-0.1052154878928735</v>
       </c>
       <c r="C78">
-        <v>-0.05642569604096946</v>
+        <v>-0.04163047054970768</v>
       </c>
       <c r="D78">
-        <v>0.1239705073553908</v>
+        <v>-0.114493372770503</v>
       </c>
       <c r="E78">
-        <v>0.2588327858019983</v>
+        <v>0.08105336023361999</v>
       </c>
       <c r="F78">
-        <v>-0.1571180102162435</v>
+        <v>0.07849960771622851</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1343122751698058</v>
+        <v>-0.1646273709947617</v>
       </c>
       <c r="C79">
-        <v>-0.05871124023280181</v>
+        <v>-0.02039862302309741</v>
       </c>
       <c r="D79">
-        <v>0.0113915223093175</v>
+        <v>-0.01925179519780499</v>
       </c>
       <c r="E79">
-        <v>-0.004111888186637077</v>
+        <v>0.04989799267444496</v>
       </c>
       <c r="F79">
-        <v>0.03207087452645504</v>
+        <v>0.007090100881331329</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07201610170807861</v>
+        <v>-0.08047402986222293</v>
       </c>
       <c r="C80">
-        <v>-0.03371315958674895</v>
+        <v>0.0005726036433717622</v>
       </c>
       <c r="D80">
-        <v>0.1119526636065595</v>
+        <v>-0.05863984892448174</v>
       </c>
       <c r="E80">
-        <v>-0.03664579641133654</v>
+        <v>0.03607196176570048</v>
       </c>
       <c r="F80">
-        <v>0.06889457844219647</v>
+        <v>-0.0159295833206898</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1389861542981716</v>
+        <v>-0.1233806906461999</v>
       </c>
       <c r="C81">
-        <v>-0.06400242404623517</v>
+        <v>-0.03030966989439161</v>
       </c>
       <c r="D81">
-        <v>0.05691483983782371</v>
+        <v>-0.018733893225382</v>
       </c>
       <c r="E81">
-        <v>-0.007463012988150848</v>
+        <v>0.06026328638318889</v>
       </c>
       <c r="F81">
-        <v>0.04226762141712068</v>
+        <v>0.006686992626655443</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1560404768699753</v>
+        <v>-0.163980026236998</v>
       </c>
       <c r="C82">
-        <v>-0.04621738706976068</v>
+        <v>-0.02139937215101307</v>
       </c>
       <c r="D82">
-        <v>0.04781956575998221</v>
+        <v>-0.01673752359937133</v>
       </c>
       <c r="E82">
-        <v>-0.02873587174947655</v>
+        <v>0.03492581794850273</v>
       </c>
       <c r="F82">
-        <v>0.05426175173430074</v>
+        <v>0.065942724815964</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.08245090772821295</v>
+        <v>-0.06301880657269283</v>
       </c>
       <c r="C83">
-        <v>-0.1186973981622827</v>
+        <v>-0.003530753069192337</v>
       </c>
       <c r="D83">
-        <v>0.07817866521746904</v>
+        <v>-0.04966468602514494</v>
       </c>
       <c r="E83">
-        <v>0.02973342861209651</v>
+        <v>0.005094625645966689</v>
       </c>
       <c r="F83">
-        <v>0.01197491598374296</v>
+        <v>-0.04239370844199246</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05593774921910456</v>
+        <v>-0.05906999513341436</v>
       </c>
       <c r="C84">
-        <v>0.06457884393456816</v>
+        <v>-0.01119033420835708</v>
       </c>
       <c r="D84">
-        <v>-0.07032132326303417</v>
+        <v>-0.06385395454788517</v>
       </c>
       <c r="E84">
-        <v>-0.04815343138738468</v>
+        <v>0.00172032289581363</v>
       </c>
       <c r="F84">
-        <v>-0.01443307702553328</v>
+        <v>0.009657359639411923</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1250514530802822</v>
+        <v>-0.1388270584179882</v>
       </c>
       <c r="C85">
-        <v>-0.04293825761967335</v>
+        <v>-0.02586928995369165</v>
       </c>
       <c r="D85">
-        <v>0.02976284909015106</v>
+        <v>-0.01611158693946939</v>
       </c>
       <c r="E85">
-        <v>-0.008530254214999986</v>
+        <v>0.04150581508533506</v>
       </c>
       <c r="F85">
-        <v>0.06307487657360458</v>
+        <v>0.04653424097301066</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1769047873316227</v>
+        <v>-0.09618370385250118</v>
       </c>
       <c r="C86">
-        <v>-0.5196725449851414</v>
+        <v>0.007243054451794486</v>
       </c>
       <c r="D86">
-        <v>-0.7729215504422281</v>
+        <v>-0.02259258629197549</v>
       </c>
       <c r="E86">
-        <v>-0.00612354630073328</v>
+        <v>0.1526085396388869</v>
       </c>
       <c r="F86">
-        <v>-0.09099904207761819</v>
+        <v>-0.8681460005815008</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1102593611704353</v>
+        <v>-0.0983719962847435</v>
       </c>
       <c r="C87">
-        <v>-0.08901887921553518</v>
+        <v>-0.0251842595095621</v>
       </c>
       <c r="D87">
-        <v>0.06879538818152411</v>
+        <v>-0.07679517237051085</v>
       </c>
       <c r="E87">
-        <v>0.02162927465010069</v>
+        <v>-0.05422256377402771</v>
       </c>
       <c r="F87">
-        <v>0.04968994388370293</v>
+        <v>0.07737858381944628</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05199094980054175</v>
+        <v>-0.06111311917179849</v>
       </c>
       <c r="C88">
-        <v>-0.02478600633684694</v>
+        <v>-0.002889731230271512</v>
       </c>
       <c r="D88">
-        <v>0.05205384725985537</v>
+        <v>-0.05368094553997215</v>
       </c>
       <c r="E88">
-        <v>-0.06084095472802561</v>
+        <v>0.02762498604268169</v>
       </c>
       <c r="F88">
-        <v>0.03114328944118461</v>
+        <v>0.008800510744374724</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1904183461489903</v>
+        <v>-0.1359136543927197</v>
       </c>
       <c r="C89">
-        <v>0.3308296782321355</v>
+        <v>-0.008091708518441657</v>
       </c>
       <c r="D89">
-        <v>-0.1570588338540408</v>
+        <v>0.2572320356714718</v>
       </c>
       <c r="E89">
-        <v>0.05925797873157947</v>
+        <v>-0.09139460768814708</v>
       </c>
       <c r="F89">
-        <v>-0.0243922887957425</v>
+        <v>0.02259648520411828</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1489043657035578</v>
+        <v>-0.1460587022772638</v>
       </c>
       <c r="C90">
-        <v>0.2353883731373884</v>
+        <v>-0.02560454677504153</v>
       </c>
       <c r="D90">
-        <v>-0.1036216603171075</v>
+        <v>0.2668961792693301</v>
       </c>
       <c r="E90">
-        <v>-0.02706898516272157</v>
+        <v>-0.1086202452476518</v>
       </c>
       <c r="F90">
-        <v>-0.01013414919730602</v>
+        <v>0.02182025463150595</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.08037702884605227</v>
+        <v>-0.1187694179278051</v>
       </c>
       <c r="C91">
-        <v>-0.04301238513950129</v>
+        <v>-0.01669947972341945</v>
       </c>
       <c r="D91">
-        <v>0.004391921544231419</v>
+        <v>0.007358914031733652</v>
       </c>
       <c r="E91">
-        <v>-0.005999589882712986</v>
+        <v>0.05789341182636144</v>
       </c>
       <c r="F91">
-        <v>0.03781111210569462</v>
+        <v>-0.01859065767645002</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1655912699957747</v>
+        <v>-0.1490978068626671</v>
       </c>
       <c r="C92">
-        <v>0.2829806830820469</v>
+        <v>-0.01742757395213415</v>
       </c>
       <c r="D92">
-        <v>-0.1177211424578449</v>
+        <v>0.2971985527243051</v>
       </c>
       <c r="E92">
-        <v>0.03166679122950919</v>
+        <v>-0.1040703599962077</v>
       </c>
       <c r="F92">
-        <v>-0.02487848811777042</v>
+        <v>0.01695698176435371</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1520836391920364</v>
+        <v>-0.1507723525204372</v>
       </c>
       <c r="C93">
-        <v>0.276544637134801</v>
+        <v>-0.02225257831373589</v>
       </c>
       <c r="D93">
-        <v>-0.1569368849923493</v>
+        <v>0.2700566680461138</v>
       </c>
       <c r="E93">
-        <v>-0.05246813625556451</v>
+        <v>-0.07458192927009757</v>
       </c>
       <c r="F93">
-        <v>-0.0195731069141999</v>
+        <v>0.01613005945981172</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1330665987498261</v>
+        <v>-0.1331840919371668</v>
       </c>
       <c r="C94">
-        <v>-0.02704095288460071</v>
+        <v>-0.02379449528781601</v>
       </c>
       <c r="D94">
-        <v>0.06050954237886499</v>
+        <v>-0.04620352153634372</v>
       </c>
       <c r="E94">
-        <v>0.02077254802202749</v>
+        <v>0.06167095852920363</v>
       </c>
       <c r="F94">
-        <v>0.03806286853562765</v>
+        <v>0.03242353914139246</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1114246057881083</v>
+        <v>-0.1254122418161835</v>
       </c>
       <c r="C95">
-        <v>-0.02926990523978804</v>
+        <v>-0.005245529689050662</v>
       </c>
       <c r="D95">
-        <v>0.05040018172462774</v>
+        <v>-0.09104558333682874</v>
       </c>
       <c r="E95">
-        <v>0.04734568583735365</v>
+        <v>0.04438674956772302</v>
       </c>
       <c r="F95">
-        <v>0.05246461947882144</v>
+        <v>-0.01512046150880082</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0.009643859601126924</v>
+        <v>-0.09877113089694041</v>
       </c>
       <c r="C96">
-        <v>5.183965827241178e-05</v>
+        <v>0.9889146627372609</v>
       </c>
       <c r="D96">
-        <v>0.003331329790977214</v>
+        <v>0.02870679139168887</v>
       </c>
       <c r="E96">
-        <v>0.004725012035774119</v>
+        <v>0.0575442203796498</v>
       </c>
       <c r="F96">
-        <v>-0.004867415738879115</v>
+        <v>0.04767551487918066</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1749010474599642</v>
+        <v>-0.1881776819247592</v>
       </c>
       <c r="C97">
-        <v>-0.08665675691463143</v>
+        <v>0.01094081448254334</v>
       </c>
       <c r="D97">
-        <v>0.1863145405329397</v>
+        <v>0.007093504938366291</v>
       </c>
       <c r="E97">
-        <v>0.01634262860733865</v>
+        <v>0.01832989683090396</v>
       </c>
       <c r="F97">
-        <v>-0.8961212787818992</v>
+        <v>-0.1754088101721175</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2453582407125189</v>
+        <v>-0.2054500188337789</v>
       </c>
       <c r="C98">
-        <v>-0.06033878659677381</v>
+        <v>-0.007083779300050001</v>
       </c>
       <c r="D98">
-        <v>-0.003124330509254565</v>
+        <v>-0.01000802542198959</v>
       </c>
       <c r="E98">
-        <v>0.07743472727798352</v>
+        <v>-0.09838387865421931</v>
       </c>
       <c r="F98">
-        <v>0.01887012002404967</v>
+        <v>-0.1098408152961114</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.04500952511878797</v>
+        <v>-0.05600020823338882</v>
       </c>
       <c r="C99">
-        <v>0.02613560998383832</v>
+        <v>0.003890281388453314</v>
       </c>
       <c r="D99">
-        <v>0.03851393075474954</v>
+        <v>-0.03587556782557444</v>
       </c>
       <c r="E99">
-        <v>0.02007843863502282</v>
+        <v>0.02639690597426935</v>
       </c>
       <c r="F99">
-        <v>0.02759542361860907</v>
+        <v>0.003958063867123663</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.0233196125460566</v>
+        <v>-0.1241055913738222</v>
       </c>
       <c r="C100">
-        <v>0.004679853410797461</v>
+        <v>0.04964369853597725</v>
       </c>
       <c r="D100">
-        <v>0.1397538285193666</v>
+        <v>-0.3465893280917214</v>
       </c>
       <c r="E100">
-        <v>-0.04842160441819047</v>
+        <v>-0.8948752491564924</v>
       </c>
       <c r="F100">
-        <v>-0.04896547016014184</v>
+        <v>-0.07629239113630729</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.03318447542380315</v>
+        <v>-0.02683061870419234</v>
       </c>
       <c r="C101">
-        <v>-0.00912625102983701</v>
+        <v>-0.00877320167477732</v>
       </c>
       <c r="D101">
-        <v>0.03068627435356168</v>
+        <v>-0.03104110136510458</v>
       </c>
       <c r="E101">
-        <v>-0.02773864632885989</v>
+        <v>0.01125543405557388</v>
       </c>
       <c r="F101">
-        <v>0.03987338239362592</v>
+        <v>-0.01489790737302865</v>
       </c>
     </row>
     <row r="102" spans="1:6">
